--- a/analysis_Campinas/campinas_datasus/cps2012_dt_c.xlsx
+++ b/analysis_Campinas/campinas_datasus/cps2012_dt_c.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">cid_grupos</t>
   </si>
@@ -68,6 +68,9 @@
     <t xml:space="preserve">80 anos e mais</t>
   </si>
   <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doenças do aparelho circulatório</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">Neoplasmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,13 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -519,10 +528,13 @@
       <c r="R2" t="n">
         <v>746</v>
       </c>
+      <c r="S2" t="n">
+        <v>2032</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -573,10 +585,13 @@
       <c r="R3" t="n">
         <v>116</v>
       </c>
+      <c r="S3" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
         <v>14</v>
@@ -628,11 +643,14 @@
       </c>
       <c r="R4" t="n">
         <v>552</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1078</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -677,10 +695,13 @@
       <c r="R5" t="n">
         <v>98</v>
       </c>
+      <c r="S5" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -732,6 +753,127 @@
       </c>
       <c r="R6" t="n">
         <v>270</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="n">
+        <v>157</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64</v>
+      </c>
+      <c r="F7" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>88</v>
+      </c>
+      <c r="H7" t="n">
+        <v>91</v>
+      </c>
+      <c r="I7" t="n">
+        <v>93</v>
+      </c>
+      <c r="J7" t="n">
+        <v>87</v>
+      </c>
+      <c r="K7" t="n">
+        <v>116</v>
+      </c>
+      <c r="L7" t="n">
+        <v>114</v>
+      </c>
+      <c r="M7" t="n">
+        <v>96</v>
+      </c>
+      <c r="N7" t="n">
+        <v>93</v>
+      </c>
+      <c r="O7" t="n">
+        <v>97</v>
+      </c>
+      <c r="P7" t="n">
+        <v>116</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>137</v>
+      </c>
+      <c r="R7" t="n">
+        <v>422</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="n">
+        <v>178</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>76</v>
+      </c>
+      <c r="F8" t="n">
+        <v>88</v>
+      </c>
+      <c r="G8" t="n">
+        <v>116</v>
+      </c>
+      <c r="H8" t="n">
+        <v>127</v>
+      </c>
+      <c r="I8" t="n">
+        <v>151</v>
+      </c>
+      <c r="J8" t="n">
+        <v>181</v>
+      </c>
+      <c r="K8" t="n">
+        <v>283</v>
+      </c>
+      <c r="L8" t="n">
+        <v>368</v>
+      </c>
+      <c r="M8" t="n">
+        <v>442</v>
+      </c>
+      <c r="N8" t="n">
+        <v>481</v>
+      </c>
+      <c r="O8" t="n">
+        <v>526</v>
+      </c>
+      <c r="P8" t="n">
+        <v>683</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>793</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2204</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6726</v>
       </c>
     </row>
   </sheetData>
